--- a/safety-exam-ai/data/construction.xlsx
+++ b/safety-exam-ai/data/construction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\Desktop\앱개발\자격증공부앱\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6B2EB48-6C6A-44AB-A614-AF694E02B41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782B73C-151C-4B76-BA28-6392324D7C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1BAAAA1-29AD-4570-96FD-90741EBB30E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5406" uniqueCount="1820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5407" uniqueCount="1821">
   <si>
     <t>Question(</t>
   </si>
@@ -5502,6 +5502,10 @@
   </si>
   <si>
     <t xml:space="preserve">    options: ["하중 아래 통과", "신호수 확인", "작업 반경 통제", "안전모 착용"],</t>
+  </si>
+  <si>
+    <t>끝.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5885,10 +5889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E40A621-E630-4F18-A010-C42434C587B1}">
-  <dimension ref="A1:A6005"/>
+  <dimension ref="A1:A6007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4996" workbookViewId="0">
-      <selection activeCell="A5003" sqref="A5003"/>
+    <sheetView tabSelected="1" topLeftCell="A5988" workbookViewId="0">
+      <selection activeCell="A6008" sqref="A6008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32926,6 +32930,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6007" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6007" t="s">
+        <v>1820</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
